--- a/biology/Biochimie/DAHP_synthase/DAHP_synthase.xlsx
+++ b/biology/Biochimie/DAHP_synthase/DAHP_synthase.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,15 +490,17 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La 3-désoxy-7-phosphoheptulonate synthase, ou DAHP synthase, est une transférase qui catalyse la réaction :
 phosphoénolpyruvate + D-érythrose-4-phosphate + H2O  
         ⇌
     {\displaystyle \rightleftharpoons }
   3-désoxy-D-arabinoheptulosonate-7-phosphate + phosphate.
-Cette enzyme intervient à la première étape de la voie du shikimate, qui permet à un grand nombre d'êtres vivants — mais pas aux animaux — de produire la plupart des acides aminés aromatiques. Elle contrôle par conséquent la quantité de carbone qui entre dans cette voie métabolique à travers d'une part la rétro-inhibition exercée par les acides aminés aromatiques, d'autre part le contrôle de l'expression du gène qui la code[1]. Ces deux mécanismes sont à l'œuvre chez les bactéries, mais seul le second est effectif chez les plantes.
-Chez Escherichia coli, il existe trois isoenzymes de DAHP synthase, chacune étant sensible à l'un des trois acides aminés aromatiques produits par la voie du shikimate[2]. On a par exemple montré que la DAHP synthase sensible à la tyrosine chez E. coli est inhibée par la tyrosine par inhibition incompétitive par rapport au phosphoénolpyruvate, mais par inhibition compétitive par rapport à l'érythrose-4-phosphate, lorsque la concentration de tyrosine dépasse 10 µmolL·-1[2]. De plus, elle est inhibée par le phosphate de manière incompétitive par rapport aux deux substrats, et est inhibée par le 3-désoxy-D-arabinoheptulosonate-7-phosphate de manière compétitive par rapport au phosphoénolpyruvate et incompétitive par rapport à l'érythrose-4-posphate.
+Cette enzyme intervient à la première étape de la voie du shikimate, qui permet à un grand nombre d'êtres vivants — mais pas aux animaux — de produire la plupart des acides aminés aromatiques. Elle contrôle par conséquent la quantité de carbone qui entre dans cette voie métabolique à travers d'une part la rétro-inhibition exercée par les acides aminés aromatiques, d'autre part le contrôle de l'expression du gène qui la code. Ces deux mécanismes sont à l'œuvre chez les bactéries, mais seul le second est effectif chez les plantes.
+Chez Escherichia coli, il existe trois isoenzymes de DAHP synthase, chacune étant sensible à l'un des trois acides aminés aromatiques produits par la voie du shikimate. On a par exemple montré que la DAHP synthase sensible à la tyrosine chez E. coli est inhibée par la tyrosine par inhibition incompétitive par rapport au phosphoénolpyruvate, mais par inhibition compétitive par rapport à l'érythrose-4-phosphate, lorsque la concentration de tyrosine dépasse 10 µmolL·-1. De plus, elle est inhibée par le phosphate de manière incompétitive par rapport aux deux substrats, et est inhibée par le 3-désoxy-D-arabinoheptulosonate-7-phosphate de manière compétitive par rapport au phosphoénolpyruvate et incompétitive par rapport à l'érythrose-4-posphate.
 </t>
         </is>
       </c>
